--- a/cypress/downloads/Listado de Proyectos con Detalles - 24-04-2024.xlsx
+++ b/cypress/downloads/Listado de Proyectos con Detalles - 24-04-2024.xlsx
@@ -64,7 +64,7 @@
     <x:t>Vivienda unifamiliar</x:t>
   </x:si>
   <x:si>
-    <x:t>50</x:t>
+    <x:t>54</x:t>
   </x:si>
   <x:si>
     <x:t>Completo</x:t>
